--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.183231456205249e-12</v>
+        <v>-6.111804395914078e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.183231456205249e-12</v>
+        <v>-6.111804395914078e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77325.74153569715</v>
+        <v>5162588.496803667</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77325.74153569715</v>
+        <v>5162588.496803667</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1340999461.938693</v>
+        <v>48567196.42013658</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13564.24142911918</v>
+        <v>1050502.177545236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26717.90211209652</v>
+        <v>2033053.327713262</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39872.40988807415</v>
+        <v>3015604.477881289</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53303.1052461614</v>
+        <v>3997170.83493821</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66733.80060424867</v>
+        <v>4978737.191995131</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80164.49596233592</v>
+        <v>5960303.549052051</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93595.19132042317</v>
+        <v>6941869.906108967</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107025.8825480656</v>
+        <v>7923436.263165882</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120469.5481612636</v>
+        <v>8904121.103555465</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133900.2435193508</v>
+        <v>9885687.460612375</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147330.9388774381</v>
+        <v>10867253.81766929</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160761.6342355255</v>
+        <v>11848820.17472621</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174192.3295936128</v>
+        <v>12830386.53178314</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187635.9952068107</v>
+        <v>13811071.37217274</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201092.7603264942</v>
+        <v>14790368.70786124</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
